--- a/child_link_validation_results.xlsx
+++ b/child_link_validation_results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,82 +407,2084 @@
         <v>browserId</v>
       </c>
       <c r="B1" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Slug</v>
+      </c>
+      <c r="D1" t="str">
         <v>originalUrl</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>finalUrl</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>childUrl</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>isParent</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>status</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>httpStatus</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>error</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B-1762491552602</v>
+        <v>B-1762493774689</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>/hr/performance-management%C2%A0tools-resources</v>
       </c>
       <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="b">
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/performance-management%C2%A0tools-resources</v>
+      </c>
+      <c r="E2" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/performance-management%C2%A0tools-resources</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/performance-management%C2%A0tools-resources</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>failed</v>
       </c>
-      <c r="G2" t="str">
-        <v>FETCH_ERROR</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Failed to parse URL from ?_t=1762491552602</v>
+      <c r="I2">
+        <v>404</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B-1762491552606</v>
+        <v>B-1762493776148</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>VD</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>/academic-program-finder/mba-41</v>
       </c>
       <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="b">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E3" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B4" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C4" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E4" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B5" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C5" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B6" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C6" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E6" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/ire/fast-facts/</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B7" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C7" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E7" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/campus-map/</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B8" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C8" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/suny-geneseo-rankings/</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B9" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C9" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E9" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/diversity/</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B10" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C10" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E10" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/news/</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B11" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C11" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/directory/</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B12" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C12" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/faculty-directory/</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B13" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C13" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B14" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C14" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/schools-and-departments/</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B15" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C15" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B16" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C16" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/undergraduate_research/</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B17" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C17" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/study_abroad/</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I17">
+        <v>200</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B18" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C18" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I18">
+        <v>200</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B19" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C19" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://library.geneseo.edu/</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B20" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C20" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B21" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C21" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/apply/</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I21">
+        <v>200</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B22" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C22" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/transfer/</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B23" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C23" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/graduate-admissions/</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I23">
+        <v>200</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B24" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C24" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/international-admissions/</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I24">
+        <v>200</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B25" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C25" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/campus-tours/</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I25">
+        <v>200</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B26" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C26" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/financial_aid/cost-aid-new-students/</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B27" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C27" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_and_campus_life/</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B28" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C28" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://events.geneseo.edu/</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B29" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C29" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/residence-halls/</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I29">
+        <v>200</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B30" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C30" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/cas/dining-catering/</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I30">
+        <v>200</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B31" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C31" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/information-for-community/</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I31">
+        <v>200</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B32" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C32" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/students/</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I32">
+        <v>200</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B33" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C33" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/employee-resources/</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I33">
+        <v>200</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B34" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C34" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/alumni/</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I34">
+        <v>200</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B35" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C35" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/parents-and-families/</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I35">
+        <v>200</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B36" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C36" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://geneseoknights.com/</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I36">
+        <v>200</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B37" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C37" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/support/</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I37">
+        <v>200</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B38" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C38" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/apply</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I38">
+        <v>200</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B39" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C39" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://my.geneseo.edu/</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B40" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C40" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://connect.geneseo.edu/register/</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
         <v>failed</v>
       </c>
-      <c r="G3" t="str">
-        <v>FETCH_ERROR</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Failed to parse URL from ?_t=1762491552606</v>
+      <c r="I40">
+        <v>404</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B41" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C41" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D41" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/campus-tours</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I41">
+        <v>200</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B42" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C42" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D42" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/4-1programs</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I42">
+        <v>200</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B43" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C43" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E43" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://www.ithaca.edu/academics/graduate-and-professional-studies/apply/mba-entertainment-media-mgmt</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I43">
+        <v>200</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B44" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C44" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/business/Clarkson%204%2B1.pdf</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I44">
+        <v>404</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B45" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C45" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E45" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/international-affairs-41/</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I45">
+        <v>200</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B46" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C46" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E46" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/philosophy-politics-and-economics/</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I46">
+        <v>200</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B47" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C47" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/public-administration/</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I47">
+        <v>200</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B48" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C48" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E48" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting-masters/</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I48">
+        <v>200</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B49" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C49" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E49" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I49">
+        <v>200</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B50" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C50" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E50" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/optometry-34/</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I50">
+        <v>200</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B51" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C51" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D51" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dentistry-44/</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I51">
+        <v>200</v>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B52" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C52" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D52" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E52" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://map.geneseo.edu/</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I52">
+        <v>200</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B53" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C53" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D53" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/directory</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I53">
+        <v>200</v>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B54" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C54" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D54" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/registrar/academic-calendar/</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I54">
+        <v>200</v>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B55" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C55" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D55" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/emergencies/</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I55">
+        <v>200</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B56" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C56" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D56" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/employment/</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I56">
+        <v>200</v>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B57" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C57" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D57" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I57">
+        <v>404</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B58" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C58" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D58" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/privacy/</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I58">
+        <v>200</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B59" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C59" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D59" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/student-right-to-know/</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I59">
+        <v>200</v>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B60" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C60" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D60" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E60" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I60">
+        <v>404</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B61" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C61" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D61" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I61">
+        <v>400</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B62" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C62" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D62" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E62" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://www.instagram.com/sunygeneseo</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I62">
+        <v>200</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B63" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C63" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D63" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I63">
+        <v>999</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B64" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C64" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D64" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E64" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I64">
+        <v>404</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B-1762493776148</v>
+      </c>
+      <c r="B65" t="str">
+        <v>VD</v>
+      </c>
+      <c r="C65" t="str">
+        <v>/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D65" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="E65" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://www.youtube.com/user/SUNYGeneseo</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <v>ok</v>
+      </c>
+      <c r="I65">
+        <v>200</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J65"/>
   </ignoredErrors>
 </worksheet>
 </file>